--- a/devopsautomation.xlsx
+++ b/devopsautomation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="120" windowWidth="11460" windowHeight="3984"/>
+    <workbookView xWindow="288" yWindow="300" windowWidth="11460" windowHeight="3804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="445">
   <si>
     <t>Controlling network interfaces</t>
   </si>
@@ -434,12 +434,1953 @@
 $ &gt; docker run --volumes-from dbT2 -v $(pwd):/backup ubuntu cd /dbdata &amp;&amp; tar xvf /backup/backup.tar
 </t>
   </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>ff Installing Jenkins</t>
+  </si>
+  <si>
+    <t>ff Installing the Git plugin</t>
+  </si>
+  <si>
+    <t>ff Installing a Jenkins slave</t>
+  </si>
+  <si>
+    <t>ff Creating your first Jenkins job</t>
+  </si>
+  <si>
+    <t>ff Building Docker containers using Jenkins</t>
+  </si>
+  <si>
+    <t>ff Deploying a Java application to Tomcat with zero downtime using Ansible</t>
+  </si>
+  <si>
+    <t>install jenkins using ansible script: ansible-galaxy init jenkins</t>
+  </si>
+  <si>
+    <t>name: Install Git
+apt: name=git state=present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. $ adduser jenkins
+2. create credentials in jenkins
+3. add new slave
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ usermod -aG docker Jenkins
+service Jenkins restart
+sudo su sudo Jenkins
+$ docker login
+create dckerfile and build image from jenkins shell
+push the built image to docker registory:
+delete old containers and images
+</t>
+  </si>
+  <si>
+    <t>Parallel deployment allows you to deploy a new version of an application</t>
+  </si>
+  <si>
+    <t>alongside an existing one and Tomcat will then ensure that any existing connections to the</t>
+  </si>
+  <si>
+    <t>application will be satisfied, while new connections will be passed to the new version</t>
+  </si>
+  <si>
+    <t>When Tomcat sees a WAR file with ## in front of its file extension, it works on the assumption</t>
+  </si>
+  <si>
+    <t>that this is a versioned application and as with any app, it will attempt to explode and</t>
+  </si>
+  <si>
+    <t>automatically deploy the code. When a newer version of the app is placed into the web apps</t>
+  </si>
+  <si>
+    <t>directory, it explodes and deploys this as well, but it ensures that the existing app is also ran</t>
+  </si>
+  <si>
+    <t>alongside it until all user sessions are expired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. create webapp folderin git 
+2. creata ansible playbook with :tasks:
+- name: Deploy App
+copy: src=/var/lib/jenkins/jobs/workspace/tomcat_test /
+testapp.war dest="/usr/local/apache-tomcat-8.0.23/webapps/
+testapp##{{ buildnum }}.war" owner=tomcat group=tomcat
+name: Add Jenkins Sudo access
+lineinfile: dest=/etc/sudoers state=present line='jenkins
+ALL=(ALL) NOPASSWD:ALL' validate='visudo -cf %s'
+3. create jekins job to build test and create war,echo buildnumber ti var filers in ansible  , call ansible
+4. given juenkisusers no paass all </t>
+  </si>
+  <si>
+    <t>https://tomcat.apache.org/
+tomcat-7.0-doc/config/context.html#Parallel_deployment.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use standard AWS infrastructure features such as Amazon Virtual Private Cloud (VPC), Amazon Elastic Compute Cloud (EC2), Elastic Load Balancing, and Auto Scaling from the command line.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use AWS CloudFormation and other automation technologies to produce stacks of AWS resources that can be deployed in an automated, repeatable fashion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Build functioning virtual private networks with Amazon VPC from the ground up using the AWS Management Console.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Deploy Amazon EC2 instances using command line calls and troubleshoot the most common problems with instances.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Monitor the health of Amazon EC2 instances and other AWS services.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Manage user identity, AWS permissions, and security in the cloud.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Manage resource consumption in an AWS account using tools such as Amazon CloudWatch, tagging, and Trusted Advisor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Select and implement the best strategy for creating reusable Amazon EC2 instances.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Configure a set of Amazon EC2 instances that launch behind a load balancer, with the system scaling up and down in response to demand.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Edit and troubleshoot a basic AWS CloudFormation stack definition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Programmatically use AWS Identity and Access Management (IAM) to authenticate to AWS resources</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create, declare, deploy, and manage infrastructure as code with AWS CloudFormation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Explore advanced concepts of Amazon Elastic Compute Cloud (EC2) and Amazon Virtual Private Cloud (VPC)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Understand continuous integration and deployment on AWS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Manage alerts and workflows with Amazon Simple Queue Service (SQS) and Amazon Simple Notification Service (SNS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Improve web application performance and redundancy with Amazon CloudFront and Amazon Route 53</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use Amazon Simple Workflow Service (SWF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scale infrastructure with Elastic Load Balancing and Auto Scaling</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Generate metrics, create alarms, and explore Amazon CloudWatch log aggregation capabilities</t>
+    </r>
+  </si>
+  <si>
+    <t>·        Attended the System Operations on AWS course</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Familiarity with cloud computing concepts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experience with core AWS products and services, such as Amazon EC2, Amazon Simple Storage Service (S3), and Amazon Relational Database Service (RDS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Familiarity with a Unix shell and AWS Command Line Interface (CLI) tools</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Basic familiarity with Ruby or Python scripting and the Bash shell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Basic familiarity with Amazon Linux, Amazon SQS, Amazon SNS, and AWS CloudFormation</t>
+    </r>
+  </si>
+  <si>
+    <t>Use the principal concepts and practices behind the DevOps methodology.</t>
+  </si>
+  <si>
+    <t>Design and implement an infrastructure on AWS that supports one or more DevOps development projects.</t>
+  </si>
+  <si>
+    <t>Use AWS CloudFormation and AWS OpsWorks to deploy the infrastructure necessary to create development, test, and production environments for a software development project.</t>
+  </si>
+  <si>
+    <t>Use AWS CodeCommit and AWS CodeBuild to understand the array of options for enabling a Continuous Integration environment on AWS.</t>
+  </si>
+  <si>
+    <t>Use AWS CodePipeline to design and implement a Continuous Integration and Delivery pipeline on AWS.</t>
+  </si>
+  <si>
+    <t>Use AWS CodeStar to manage all software development activities in one place.</t>
+  </si>
+  <si>
+    <t>Implement several common Continuous Deployment use cases using AWS technologies, including blue/green deployment and A/B testing.</t>
+  </si>
+  <si>
+    <t>Distinguish between the array of application deployment technologies available on AWS (including AWS CodeDeploy, AWS OpsWorks, AWS Elastic Beanstalk, Amazon EC2 Container Service, and Amazon EC2 Container Registry), and decide which technology best fits a given scenario.</t>
+  </si>
+  <si>
+    <t>Use Amazon EC2 Systems Manager for patch management.</t>
+  </si>
+  <si>
+    <t>Leverage Automated Testing in different stages of a CI/CD pipeline.</t>
+  </si>
+  <si>
+    <t>Fine-tune the applications you deliver on AWS for high performance, and use AWS tools and technologies to monitor your application and environment for potential issues.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Implement and manage continuous delivery systems and methodologies on AWS
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Understand, implement, and automate security controls, governance processes, and compliance validation 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Define and deploy monitoring, metrics, and logging systems on AWS 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Implement systems that are highly available, scalable, and self-healing on the AWS platform </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Design, manage, and maintain tools to automate operational processes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Networking concepts 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Strong system administration (Linux/Unix or Windows) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Strong scripting skillset
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Multi-tier architectures: load balancers, caching, web servers, application servers, databases, and networking 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Templates and other configurable items to enable automation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Deployment tools and techniques in a distributed environment
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Basic monitoring techniques in a dynamic environment</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">http error: </t>
+  </si>
+  <si>
+    <t>info: 1xx, success-2xx,redirect:3xx,client:4xx,server:5xx</t>
+  </si>
+  <si>
+    <t>https:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encrypt with  ssl tls
+protects against mitm..man in the middle attack
+encrypts headers, cookies,url
+uses digital certificates
+</t>
+  </si>
+  <si>
+    <t>POP:</t>
+  </si>
+  <si>
+    <t>post office protocol:..tcp port 110 flow: secure: tcp 995</t>
+  </si>
+  <si>
+    <t>IMAP4 ..tcp:143imaps:993</t>
+  </si>
+  <si>
+    <t>smtp: tcp..25,MIME,..conenc to smtp server using telnet 
+unix: sendmail smtp server fr email</t>
+  </si>
+  <si>
+    <t>VOIP: voice over protocol:
+SIP, RTP--real time transfer protocol--audio and vedio</t>
+  </si>
+  <si>
+    <t>FTP//plain text ..tls and ssl ..active passive mode ..tcp 21, tftp ..udp 69..conneciton less service ..used for cnfig</t>
+  </si>
+  <si>
+    <t>SMB:..used to share files printers and serial ports ..tcp--445</t>
+  </si>
+  <si>
+    <t>tcp 22..uses pki ..sftp and secure copy ..scp</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/support/knowledgecenter/en/SSLTBW_2.3.0/com.ibm.zos.v2r3.foto100/comdescr.htm</t>
+  </si>
+  <si>
+    <t>ssh-keygen supports two types of certificates: user and host. User certificates authenticate users to servers, whereas host certificates authenticate server hosts to users. To generate a user certificate, do the following:
+ssh-keygen -s /path/to/ca_key -I key_id /path/to/user_key.pubcopy to clipboard
+The resultant certificate will be placed in /path/to/user_key-cert.pub. A host certificate requires the -h option:
+ssh-keygen -s /path/to/ca_key -I key_id -h /path/to/host_key.pubcopy to clipboard
+The host certificate will be output to /path/to/host_key-cert.pub.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scp: sftp-server is a program that implements the server side of the SFTP protocol
+ssh-agent is a program to hold private keys used for public key authentication (RSA, DSA, ECDSA).
+ Keys are added using ssh-add..ssh-add adds the files ~/.ssh/id_rsa, ~/.ssh/id_dsa, ~/.ssh/id_ecdsa, and ~/.ssh/identity
+ssh-askpass
+ssh-keygen generates, manages, and converts authentication keys for ssh. 
+ssh-keyscan is a command for gathering the public host keys for a number of hosts. It aids in building and verifying ssh_known_hosts files. 
+ssh-keysign is used by ssh to access the local host keys and generate the digital signature that is required during host-based authentication 
+sshd (OpenSSH daemon) is the daemon program for ssh. 
+</t>
+  </si>
+  <si>
+    <t>RDP..remote desktop protocol..3389..</t>
+  </si>
+  <si>
+    <t>snmp: simple network management protocol..manges netwrks devices agents</t>
+  </si>
+  <si>
+    <t>dhcp..dynamic host config prtocol..client ..67..server 68 provides ip,subnetmask,leaseduration,dhcp serverip,</t>
+  </si>
+  <si>
+    <t>telnet to check if tcp conenction is established</t>
+  </si>
+  <si>
+    <t>netstat -ab . Netstat -abo, netstat-abno,netstat -r</t>
+  </si>
+  <si>
+    <t>nbtstat</t>
+  </si>
+  <si>
+    <t>IPv4: 32 bit..0-255</t>
+  </si>
+  <si>
+    <t>Ipvr: 128 bit .. 8 segmets and hexadecimal number</t>
+  </si>
+  <si>
+    <t> class A addresses, the addresses from 10.0.0.0 to 10.255.255.255 are reserved for private network assignment. For class B, this range is 172.16.0.0 to 172.31.255.255. For class C, the range of 192.168.0.0 to 192.168.255.255 is reserved for private usage.</t>
+  </si>
+  <si>
+    <t>A 0.0.0.0 to 127.255.255.255</t>
+  </si>
+  <si>
+    <t>B 128.0.0.0 to 191.255.255.255.</t>
+  </si>
+  <si>
+    <t>C 192.0.0.0 to 223.255.255.255</t>
+  </si>
+  <si>
+    <t>D  224.0.0.0 to 239.255.255.255.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E 240.0.0.0 and 255.255.255.255. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">netmask.. Amount of address bits used for network portion </t>
+  </si>
+  <si>
+    <t>subnetmask a protion of netmask</t>
+  </si>
+  <si>
+    <r>
+      <t>255.255.255.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1's are netmask ..0 are host </t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Classless Inter-Domain Routing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, or CIDR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>192.168.0.15/24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. This means that the first 24 bits of the IP address given are considered significant for the network routing.</t>
+    </r>
+  </si>
+  <si>
+    <t>A network interface can refer to any kind of software interface to networking hardware.</t>
+  </si>
+  <si>
+    <r>
+      <t>NAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: NAT stands for network address translation. It is a way to translate requests that are incoming into a routing server to the relevant devices or servers that it knows about in the LAN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Firewall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: A firewall is a program that decides whether traffic coming into a server or going out should be allowed.
+A firewall is a system designed to prevent unauthorized access to or from a private networt.Firewalls prevent unauthorized internet users from accessing private networks connected to the internet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Packet filtering:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> The system examines each packet entering or leaving the network and accepts or rejects it based on user-defined rules. Packet filtering is fairly effective and transparent to users, but it is difficult to configure. In addition, it is susceptible to IP spoofing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Circuit-level gateway implementation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> This process applies security mechanisms when a TCP or UDP connection is established. Once the connection has been made, packets can flow between the hosts without further checking.</t>
+    </r>
+  </si>
+  <si>
+    <t>Acting as a proxy server: A proxy server is a type of gateway that hides the true network address of the computer(s) connecting through it. A proxy server connects to the internet, makes the requests for pages, connections to servers, etc., and receives the data on behalf of the computer(s) behind it. The firewall capabilities lie in the fact that a proxy can be configured to allow only certain types of traffic to pass (e.g.,HTTP files, or web pages). A proxy server has the potential drawback of slowing network performance, since it has to actively analyze and manipulate traffic passing through it.</t>
+  </si>
+  <si>
+    <r>
+      <t>Web application firewall:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> A web application firewall is a hardware appliance, server plug-in, or some other software filter that applies a set of rules to a HTTP conversation. Such rules are generally customized to the application so that many attacks can be identified and blocked.</t>
+    </r>
+  </si>
+  <si>
+    <t>Must possess excellent automation skills and the ability to drive initiatives to automate processes.</t>
+  </si>
+  <si>
+    <t>Building strong cross-functional leadership skills, in coordination with the operations and engineering teams to build stable and secure applications. </t>
+  </si>
+  <si>
+    <t>Configuration management solutions that meet the requirements of the deployment process. </t>
+  </si>
+  <si>
+    <t>Excellent knowledge of software development and software testing methodologies along with change and configuration management practices in Unix and Linux-based environments.</t>
+  </si>
+  <si>
+    <t>Possess sound knowledge of cloud-based environments</t>
+  </si>
+  <si>
+    <t>Possess exceptionally strong scripting skills (Python, Ruby, Perl)</t>
+  </si>
+  <si>
+    <t>Experience in handling automated deployment, CI, CD, and other engineering tools. </t>
+  </si>
+  <si>
+    <t>Must possess excellent  knowledge of infrastructure automation tools (Ansible, Chef, Puppet)</t>
+  </si>
+  <si>
+    <t>Hand on experience on working with Amazon Web Services (AWS)</t>
+  </si>
+  <si>
+    <t>Must have strong knowledge in operating Linux/Unix environment and scripting languages like Python, Perl, and  Shell.</t>
+  </si>
+  <si>
+    <t>Ability to review deployment and delivery pipelines i.e., execute initiatives to minimize chances of failure, identify bottlenecks and troubleshoot issues. </t>
+  </si>
+  <si>
+    <t>Previous experience in implementing continuous delivery and DevOps solutions.</t>
+  </si>
+  <si>
+    <t>Experience in designing and building solutions to move data and processing from on-premise solutions to cloud-based solutions.</t>
+  </si>
+  <si>
+    <t>Must possess expertise in any of the coding languages depending on the nature of the job: SaltStack, Nginx, Chef, Puppet, Jenkins etc. </t>
+  </si>
+  <si>
+    <t>MySQL Enterprise Monitor. </t>
+  </si>
+  <si>
+    <t>MongoDB:</t>
+  </si>
+  <si>
+    <t>cassendra</t>
+  </si>
+  <si>
+    <t>couchbase</t>
+  </si>
+  <si>
+    <t>GitLab</t>
+  </si>
+  <si>
+    <t>Software Configuration Management overview</t>
+  </si>
+  <si>
+    <t>Elements of Software Configuration Management</t>
+  </si>
+  <si>
+    <t>Introduction of Version management / Source Code Management</t>
+  </si>
+  <si>
+    <t>Overview of Build management</t>
+  </si>
+  <si>
+    <t>Overview of Packaging management</t>
+  </si>
+  <si>
+    <t>Build and Release Concept and Process</t>
+  </si>
+  <si>
+    <t>Overview of Release and Deployment management</t>
+  </si>
+  <si>
+    <t>DevOps Concept and Process</t>
+  </si>
+  <si>
+    <t>Continuous Integration and Delivery Process</t>
+  </si>
+  <si>
+    <t>Introduction of Linux Operating System</t>
+  </si>
+  <si>
+    <t>Linux User Commands</t>
+  </si>
+  <si>
+    <t>Linux Admin Commands</t>
+  </si>
+  <si>
+    <t>Windows Administrator fundamental</t>
+  </si>
+  <si>
+    <t>Subversion (svn) Fundamental</t>
+  </si>
+  <si>
+    <t>Git Fundamental</t>
+  </si>
+  <si>
+    <t>Git Advance</t>
+  </si>
+  <si>
+    <t>Apache Ant Fundamental</t>
+  </si>
+  <si>
+    <t>Apache Maven Fundamental</t>
+  </si>
+  <si>
+    <t>Apache Maven Advance</t>
+  </si>
+  <si>
+    <t>MsBuild Fundamental</t>
+  </si>
+  <si>
+    <t>Gradle Fundamental</t>
+  </si>
+  <si>
+    <t>Powershell Scripting – Fundamental</t>
+  </si>
+  <si>
+    <t>Bash(Shell) Scripting – Fundamental</t>
+  </si>
+  <si>
+    <t>Ruby Programming – Fundamental</t>
+  </si>
+  <si>
+    <t>Yum</t>
+  </si>
+  <si>
+    <t>apt-get</t>
+  </si>
+  <si>
+    <t>Nuget</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>Chef Fundamental</t>
+  </si>
+  <si>
+    <t>Chef Advance</t>
+  </si>
+  <si>
+    <t>Puppet Fundamental</t>
+  </si>
+  <si>
+    <t>Jira Fundamental</t>
+  </si>
+  <si>
+    <t>Jenkins Fundamental</t>
+  </si>
+  <si>
+    <t>Jenkins Advance</t>
+  </si>
+  <si>
+    <t>Concept of Continuous Integration</t>
+  </si>
+  <si>
+    <t>Concept of Continuous Deployment</t>
+  </si>
+  <si>
+    <t>Concept of Continuous Delivery</t>
+  </si>
+  <si>
+    <t>CI/CD Implementation</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Introducing Maven Dependencies
+Controlling Maven Classpaths
+Maven and Transitive Dependencies
+Managing Dependencies that All Projects Need – Part 1
+Managing Dependencies that All Projects Need – Part 2
+Introducing Maven Plugins
+Adding Steps to a Maven Build
+Code Generation
+Managing Plugins with a Parent POM
+Finding Available Plugins
+Maven Build Properties
+Maven Profiles
+Profile Activation via Properties
+Profile Activation via Environment
+User Settings, Profiles and Repositories
+The Basic Website and Reports
+Using Report Plugins
+Creating Custom Pages
+FAQ (frequently asked question) Pages and Site Appearance
+Deploying to a Web Server
+Deploying to a Repository
+Using Snapshots
+Preparing for a Release
+Releasing Maven Artifacts
+Preparing for an Open Source Release
+Publishing to Maven Central
+Understanding the Multi-module Project
+Incremental Building with Multiple Modules
+Building a Website for a Multi-module project
+Releasing the Multi-module Project
+Invoking Ant from Maven
+Accessing Maven Artifacts from Ant
+Building a Simple Installer
+Running Functional Tests
+Disabling Default Plugin Bindings and Excluding Transitive Dependencies</t>
+  </si>
+  <si>
+    <t>Jenkins Security
+Authentication
+Authorization
+Confidentiality
+Activating Security
+Configure Authentication
+Using Jenkins’s Internal User Database
+Creating Users
+Authorization
+Matrix-Based Security
+Note – Create the Administrative User
+Project-based Matrix Authorization
+Project-Based Authentication
+Conclusion</t>
+  </si>
+  <si>
+    <t>Distributed Builds
+Slave Machines
+Configure Jenkins Master
+Configure Projects
+Conclusion</t>
+  </si>
+  <si>
+    <t>Introduction
+Chef resources
+Cookbooks
+chef-client
+Testing cookbooks
+Details about the system
+Desired state and data
+Workstation installation
+ChefDK
+The Chef server
+Community cookbooks
+Managing multiple nodes
+Roles
+Search
+Environments
+Further resources</t>
+  </si>
+  <si>
+    <t>Chef Fundamentals/Essentials refresher
+Building custom resources
+Writing Ohai plugins
+Chef client run internals
+Implementing Chef handlers
+Cookbook style and correctness
+Foodcritic and Rubocop
+Introduction to ChefSpec
+Further Resources</t>
+  </si>
+  <si>
+    <t>Devops:</t>
+  </si>
+  <si>
+    <t>Working of DNS Server at Internet Scale</t>
+  </si>
+  <si>
+    <t>DNS Configuration</t>
+  </si>
+  <si>
+    <t>DNS Installation</t>
+  </si>
+  <si>
+    <t>Understand the working of Geolocation</t>
+  </si>
+  <si>
+    <t>Understand Web Servers like Apache</t>
+  </si>
+  <si>
+    <t>Ngnix and their differences</t>
+  </si>
+  <si>
+    <t>Configure Apache and Nginx for the Enterprise</t>
+  </si>
+  <si>
+    <t>Understand HA and Setup HA Proxy for various Servers</t>
+  </si>
+  <si>
+    <t>Setup NFS and Openfiler for storage presentation</t>
+  </si>
+  <si>
+    <t>Installation of Linux Servers using PXE boot or kickstart method</t>
+  </si>
+  <si>
+    <t>Automatic system updates</t>
+  </si>
+  <si>
+    <t>Configure SVN or Git for version control</t>
+  </si>
+  <si>
+    <t>Configure Jenkins for Build and deployments</t>
+  </si>
+  <si>
+    <t>Building an RPM package</t>
+  </si>
+  <si>
+    <t>Installation and Configuration of Puppet for deployments</t>
+  </si>
+  <si>
+    <t>Operating system tuning concepts and its Concerns</t>
+  </si>
+  <si>
+    <t>Performance and Use Cases</t>
+  </si>
+  <si>
+    <t>Types of Disk Schedulers</t>
+  </si>
+  <si>
+    <t>Network tuning Parameters and their Influence</t>
+  </si>
+  <si>
+    <t>Bench marking servers like Apache Web Server</t>
+  </si>
+  <si>
+    <t>Understand the Security at the OS and Network level</t>
+  </si>
+  <si>
+    <t>Configure Linux Firewall and other security aspects for a secured environment</t>
+  </si>
+  <si>
+    <t>Basics of Bash Shell like file descriptors</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Understand the basic syntax of bash scripting</t>
+  </si>
+  <si>
+    <t>Understand loops, its conditions and return status</t>
+  </si>
+  <si>
+    <t>Understand and configure crontab for automating a task</t>
+  </si>
+  <si>
+    <t>Installation and Configuration of ClusterShell for deployments on large clusters</t>
+  </si>
+  <si>
+    <t>Basics of Python and its comparisons with bash scripting</t>
+  </si>
+  <si>
+    <t>What is Virtualization?</t>
+  </si>
+  <si>
+    <t>Types of Virtualization</t>
+  </si>
+  <si>
+    <t>Difference between Xen and KVM</t>
+  </si>
+  <si>
+    <t>Installation of virtual machines using Virtualbox</t>
+  </si>
+  <si>
+    <t>Vmware</t>
+  </si>
+  <si>
+    <t>KVM</t>
+  </si>
+  <si>
+    <t>Understand the various components of virtualization</t>
+  </si>
+  <si>
+    <t>Introduction to the Cloud virtualization</t>
+  </si>
+  <si>
+    <t>Understand Logging in Linux systems and its working for various services</t>
+  </si>
+  <si>
+    <t>Introduction to various logging tools</t>
+  </si>
+  <si>
+    <t>Understand System auditing</t>
+  </si>
+  <si>
+    <t>Install and Configure Nagios Monitoring for the Infrastructure</t>
+  </si>
+  <si>
+    <t>Writing custom plugins for Nagios</t>
+  </si>
+  <si>
+    <t>Understand the Dev and Production environments in an organization</t>
+  </si>
+  <si>
+    <t>DevOps Best Practices</t>
+  </si>
+  <si>
+    <t>Understand Openssl and Openssh details</t>
+  </si>
+  <si>
+    <t>Understand rsync for backups</t>
+  </si>
+  <si>
+    <t>Understand Commands like: lsof, netstat</t>
+  </si>
+  <si>
+    <t>Understand Virtual Memory</t>
+  </si>
+  <si>
+    <t>Free, top, vmstat, iostat, uptime, find, screen and strace</t>
+  </si>
+  <si>
+    <t>Disk commands like – df, du, mkfs, tune2fs, fdisk and dd</t>
+  </si>
+  <si>
+    <t>Understand /etc/fstab, mount commands</t>
+  </si>
+  <si>
+    <t>Introduction to VCS </t>
+  </si>
+  <si>
+    <t>Types of VCS</t>
+  </si>
+  <si>
+    <t>Difference between CVCS and DVCS</t>
+  </si>
+  <si>
+    <t>What is GIT</t>
+  </si>
+  <si>
+    <t>GIT  Architecture</t>
+  </si>
+  <si>
+    <t>GIT installation</t>
+  </si>
+  <si>
+    <t>Git commands</t>
+  </si>
+  <si>
+    <t>Working with GIT</t>
+  </si>
+  <si>
+    <t>Creating repository </t>
+  </si>
+  <si>
+    <t>Cloning</t>
+  </si>
+  <si>
+    <t>check-in and committing</t>
+  </si>
+  <si>
+    <t>Fetch pull and remote </t>
+  </si>
+  <si>
+    <t>Branching </t>
+  </si>
+  <si>
+    <t>Creating the Branches</t>
+  </si>
+  <si>
+    <t>switching the branches</t>
+  </si>
+  <si>
+    <t>merging the branches</t>
+  </si>
+  <si>
+    <t>Working with Github</t>
+  </si>
+  <si>
+    <t>what is Jenkins?</t>
+  </si>
+  <si>
+    <t>Continuous Integration with Jenkins</t>
+  </si>
+  <si>
+    <t>Java installation and configuration </t>
+  </si>
+  <si>
+    <t>Exploring Jenkins Dashboard</t>
+  </si>
+  <si>
+    <t>Jobs </t>
+  </si>
+  <si>
+    <t>Creating  jobs</t>
+  </si>
+  <si>
+    <t>Running the Jobs </t>
+  </si>
+  <si>
+    <t>Setting up the global environments for Jobs </t>
+  </si>
+  <si>
+    <t>Adding and updating Plugins </t>
+  </si>
+  <si>
+    <t>Disabling and deleting jobs  </t>
+  </si>
+  <si>
+    <t>Securing Jenkins</t>
+  </si>
+  <si>
+    <t>Authentication </t>
+  </si>
+  <si>
+    <t>Jenkins Plugin </t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>Confidentiality </t>
+  </si>
+  <si>
+    <t>Creating users </t>
+  </si>
+  <si>
+    <t>Best Practices for Jenkins</t>
+  </si>
+  <si>
+    <t>Plugin Management in Jenkins</t>
+  </si>
+  <si>
+    <t>Building Delivery Pipeline in Jenkins with java Projec</t>
+  </si>
+  <si>
+    <t>Introduction </t>
+  </si>
+  <si>
+    <t>What is a Docker </t>
+  </si>
+  <si>
+    <t>what is container</t>
+  </si>
+  <si>
+    <t>Dockers vs. Virtualization</t>
+  </si>
+  <si>
+    <t>Docker Fundamentals</t>
+  </si>
+  <si>
+    <t>Docker Architecture</t>
+  </si>
+  <si>
+    <t>Docker  Installation on Linux</t>
+  </si>
+  <si>
+    <t>Understanding the Docker components</t>
+  </si>
+  <si>
+    <t>Working with Images</t>
+  </si>
+  <si>
+    <t>Docker Containers</t>
+  </si>
+  <si>
+    <t>Docker Networking</t>
+  </si>
+  <si>
+    <t>Docker Files </t>
+  </si>
+  <si>
+    <t>Introduction to Puppet</t>
+  </si>
+  <si>
+    <t>what is configuration Management</t>
+  </si>
+  <si>
+    <t>what is Puppet</t>
+  </si>
+  <si>
+    <t>Puppet Architecture</t>
+  </si>
+  <si>
+    <t>Basic Puppet Terminologies</t>
+  </si>
+  <si>
+    <t>Installation and Configuration of Puppet Master</t>
+  </si>
+  <si>
+    <t>Installation and Configuration of Puppet agents</t>
+  </si>
+  <si>
+    <t>Working with Manifests</t>
+  </si>
+  <si>
+    <t>Creating Manifests</t>
+  </si>
+  <si>
+    <t>Node Definitions</t>
+  </si>
+  <si>
+    <t>Managing Files</t>
+  </si>
+  <si>
+    <t>Managing Packages</t>
+  </si>
+  <si>
+    <t>Managing Services</t>
+  </si>
+  <si>
+    <t>Selectors</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Working  with modules</t>
+  </si>
+  <si>
+    <t>Creating Modules</t>
+  </si>
+  <si>
+    <t>Module Structure </t>
+  </si>
+  <si>
+    <t>Customizing Modules</t>
+  </si>
+  <si>
+    <t>Conditionals</t>
+  </si>
+  <si>
+    <t>Declaring Classes And Creating Node Definitions</t>
+  </si>
+  <si>
+    <t>Downloading and Installing modules from Forge</t>
+  </si>
+  <si>
+    <t>Deploying  and open source App </t>
+  </si>
+  <si>
+    <t>Working with Templates</t>
+  </si>
+  <si>
+    <t>Creating File Templates</t>
+  </si>
+  <si>
+    <t>Using Templates in our module</t>
+  </si>
+  <si>
+    <t>Nagios Plugins</t>
+  </si>
+  <si>
+    <t>Nagios Objects</t>
+  </si>
+  <si>
+    <t>Nagios Commands</t>
+  </si>
+  <si>
+    <t>Nagios Notification</t>
+  </si>
+  <si>
+    <t>ideal pipeline:</t>
+  </si>
+  <si>
+    <t>1. Developers develop the code and this source code is managed by Version Control System tools like Git etc.</t>
+  </si>
+  <si>
+    <t>2. Developers send this code to the Git repository and any changes made in the code is committed to this Repository.</t>
+  </si>
+  <si>
+    <t>3. Jenkins pulls this code from the repository using the Git plugin and build it using tools like Ant or Maven.</t>
+  </si>
+  <si>
+    <t>4. Configuration management tools like puppet deploys &amp; provisions testing environment and then Jenkins releases this code on the test environment on which testing is done using tools like selenium.</t>
+  </si>
+  <si>
+    <t>5. Once the code is tested, Jenkins send it for deployment on the production server (even production server is provisioned &amp; maintained by tools like puppet).</t>
+  </si>
+  <si>
+    <t>6. After deployment It is continuously monitored by tools like Nagios.</t>
+  </si>
+  <si>
+    <t>7. Docker containers provides testing environment to test the build features.</t>
+  </si>
+  <si>
+    <t>Source code</t>
+  </si>
+  <si>
+    <t>compile</t>
+  </si>
+  <si>
+    <t>Code review</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continous Testing </t>
+  </si>
+  <si>
+    <t>Trackit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continous monitoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build docker image </t>
+  </si>
+  <si>
+    <t>Push to docker registry</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>JIRA/Confluence</t>
+  </si>
+  <si>
+    <t>cloudwatch/newrelic</t>
+  </si>
+  <si>
+    <t>Run docker contianer statging using kubernates : 
+https://about.gitlab.com/2016/12/14/continuous-delivery-of-a-spring-boot-application-with-gitlab-ci-and-kubernetes/</t>
+  </si>
+  <si>
+    <t>codecommit</t>
+  </si>
+  <si>
+    <t>codebuildcodebuild</t>
+  </si>
+  <si>
+    <t>codebuild</t>
+  </si>
+  <si>
+    <t>AWS+Docker..code pipeline</t>
+  </si>
+  <si>
+    <t>elasticbeanstalk
+https://keyholesoftware.com/2017/09/26/using-docker-aws-to-build-deploy-and-scale-your-application/</t>
+  </si>
+  <si>
+    <t>Docker container</t>
+  </si>
+  <si>
+    <t>env config and provision</t>
+  </si>
+  <si>
+    <t>cloudformation</t>
+  </si>
+  <si>
+    <t>use maven or jenkins deploy plugin</t>
+  </si>
+  <si>
+    <t>deploy on nginx: https://www.linode.com/docs/development/java/how-to-deploy-spring-boot-applications-nginx-ubuntu-16-04/</t>
+  </si>
+  <si>
+    <t>https://stackify.com/guide-docker-java/</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/working-with-jenkins/learn/v4/content</t>
+  </si>
+  <si>
+    <t>Deploy app to tomcat : http://www.baeldung.com/spring-boot-war-tomcat-deploy,
+http://www.baeldung.com/tomcat-deploy-war
+http://www.codejava.net/servers/tomcat/how-to-deploy-a-java-web-application-on-tomcat</t>
+  </si>
+  <si>
+    <t>We deploy a docker container with the full jar (including an embedded tomcat) to AWS, then use an ELB to load balance and send all port 443 traffic to port 8080 to the ec2 instance</t>
+  </si>
+  <si>
+    <t>https://hellokoding.com/docker-compose-with-spring-boot-nginx/</t>
+  </si>
+  <si>
+    <t>Nagios</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,8 +2396,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,8 +2505,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -484,12 +2520,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -499,6 +2550,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -801,20 +2908,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -828,7 +2938,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -839,7 +2949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -847,7 +2957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -855,7 +2965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -863,7 +2973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -871,7 +2981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -879,15 +2989,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -895,391 +3017,2249 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>64</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>67</v>
       </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B52" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B53" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>79</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>80</v>
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B82" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>87</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+    </row>
+    <row r="106" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+    </row>
+    <row r="110" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A165" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="16"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="16"/>
+    </row>
+    <row r="172" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="16"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A222" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A234" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>403</v>
+      </c>
+      <c r="B390" s="24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B391" s="24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B392" s="24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B393" s="24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B394" s="24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B395" s="24" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B396" s="24" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1"/>
+    <hyperlink ref="C33" r:id="rId1"/>
+    <hyperlink ref="C94" r:id="rId2" location="Parallel_deployment."/>
+    <hyperlink ref="A123" r:id="rId3" display="https://aws.amazon.com/training/course-descriptions/sysops/"/>
+    <hyperlink ref="A172" r:id="rId4" display="https://kb.iu.edu/d/ahoo"/>
+    <hyperlink ref="A181" r:id="rId5" display="https://mindmajix.com/linux/introduction-to-linux-operating-system"/>
+    <hyperlink ref="A185" r:id="rId6" display="https://mindmajix.com/puppet/introduction"/>
+    <hyperlink ref="A186" r:id="rId7" display="https://mindmajix.com/aws/brief-introduction-to-amazon-web-services-aws"/>
+    <hyperlink ref="A187" r:id="rId8" display="https://mindmajix.com/python-tutorial"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="104.44140625" customWidth="1"/>
+    <col min="10" max="10" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
